--- a/TestData/Bảng Kê Xuất Hóa Đơn Hưng Dụ T4 24 (VLP) - XUAT HD.xlsx
+++ b/TestData/Bảng Kê Xuất Hóa Đơn Hưng Dụ T4 24 (VLP) - XUAT HD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PNJP\New\Test PyQt5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Object-Detection\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18348" windowHeight="6828" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18348" windowHeight="6828" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="XUẤT HÓA ĐƠN" sheetId="76" r:id="rId1"/>
@@ -1364,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IT86"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1561,7 +1561,7 @@
         <v>350000</v>
       </c>
       <c r="F14" s="76">
-        <f t="shared" ref="F14:F75" si="0">D14*E14</f>
+        <f>D14*E14</f>
         <v>350000</v>
       </c>
       <c r="G14" s="55"/>
@@ -1583,7 +1583,7 @@
         <v>450000</v>
       </c>
       <c r="F15" s="76">
-        <f t="shared" si="0"/>
+        <f>D15*E15</f>
         <v>1350000</v>
       </c>
       <c r="G15" s="55"/>
@@ -1605,7 +1605,7 @@
         <v>700000</v>
       </c>
       <c r="F16" s="76">
-        <f t="shared" si="0"/>
+        <f>D16*E16</f>
         <v>700000</v>
       </c>
       <c r="G16" s="55"/>
@@ -1627,7 +1627,7 @@
         <v>800000</v>
       </c>
       <c r="F17" s="76">
-        <f t="shared" si="0"/>
+        <f>D17*E17</f>
         <v>3200000</v>
       </c>
       <c r="G17" s="55"/>
@@ -1649,7 +1649,7 @@
         <v>900000</v>
       </c>
       <c r="F18" s="76">
-        <f t="shared" si="0"/>
+        <f>D18*E18</f>
         <v>3600000</v>
       </c>
       <c r="G18" s="55"/>
@@ -1671,7 +1671,7 @@
         <v>950000</v>
       </c>
       <c r="F19" s="76">
-        <f t="shared" si="0"/>
+        <f>D19*E19</f>
         <v>2850000</v>
       </c>
       <c r="G19" s="55"/>
@@ -1693,7 +1693,7 @@
         <v>1000000</v>
       </c>
       <c r="F20" s="76">
-        <f t="shared" si="0"/>
+        <f>D20*E20</f>
         <v>10000000</v>
       </c>
       <c r="G20" s="55"/>
@@ -1715,7 +1715,7 @@
         <v>1050000</v>
       </c>
       <c r="F21" s="76">
-        <f t="shared" si="0"/>
+        <f>D21*E21</f>
         <v>6300000</v>
       </c>
       <c r="G21" s="55"/>
@@ -1737,7 +1737,7 @@
         <v>1100000</v>
       </c>
       <c r="F22" s="76">
-        <f t="shared" si="0"/>
+        <f>D22*E22</f>
         <v>16500000</v>
       </c>
       <c r="G22" s="55"/>
@@ -1759,7 +1759,7 @@
         <v>1150000</v>
       </c>
       <c r="F23" s="76">
-        <f t="shared" si="0"/>
+        <f>D23*E23</f>
         <v>26450000</v>
       </c>
       <c r="G23" s="55"/>
@@ -1781,7 +1781,7 @@
         <v>1200000</v>
       </c>
       <c r="F24" s="76">
-        <f t="shared" si="0"/>
+        <f>D24*E24</f>
         <v>25200000</v>
       </c>
       <c r="G24" s="55"/>
@@ -1803,7 +1803,7 @@
         <v>1210000</v>
       </c>
       <c r="F25" s="76">
-        <f t="shared" si="0"/>
+        <f>D25*E25</f>
         <v>2420000</v>
       </c>
       <c r="G25" s="55"/>
@@ -1825,7 +1825,7 @@
         <v>1230000</v>
       </c>
       <c r="F26" s="76">
-        <f t="shared" si="0"/>
+        <f>D26*E26</f>
         <v>1230000</v>
       </c>
       <c r="G26" s="55"/>
@@ -1847,7 +1847,7 @@
         <v>1250000</v>
       </c>
       <c r="F27" s="76">
-        <f t="shared" si="0"/>
+        <f>D27*E27</f>
         <v>12500000</v>
       </c>
       <c r="G27" s="55"/>
@@ -1869,7 +1869,7 @@
         <v>1282200</v>
       </c>
       <c r="F28" s="76">
-        <f t="shared" si="0"/>
+        <f>D28*E28</f>
         <v>1282200</v>
       </c>
       <c r="G28" s="55"/>
@@ -1891,7 +1891,7 @@
         <v>1300000</v>
       </c>
       <c r="F29" s="76">
-        <f t="shared" si="0"/>
+        <f>D29*E29</f>
         <v>13000000</v>
       </c>
       <c r="G29" s="55"/>
@@ -1913,7 +1913,7 @@
         <v>1310000</v>
       </c>
       <c r="F30" s="76">
-        <f t="shared" si="0"/>
+        <f>D30*E30</f>
         <v>1310000</v>
       </c>
       <c r="G30" s="55"/>
@@ -1935,7 +1935,7 @@
         <v>1330000</v>
       </c>
       <c r="F31" s="76">
-        <f t="shared" si="0"/>
+        <f>D31*E31</f>
         <v>3990000</v>
       </c>
       <c r="G31" s="55"/>
@@ -1957,7 +1957,7 @@
         <v>1350000</v>
       </c>
       <c r="F32" s="76">
-        <f t="shared" si="0"/>
+        <f>D32*E32</f>
         <v>9450000</v>
       </c>
       <c r="G32" s="55"/>
@@ -1979,7 +1979,7 @@
         <v>1360000</v>
       </c>
       <c r="F33" s="76">
-        <f t="shared" si="0"/>
+        <f>D33*E33</f>
         <v>1360000</v>
       </c>
       <c r="G33" s="55"/>
@@ -2001,7 +2001,7 @@
         <v>1380000</v>
       </c>
       <c r="F34" s="76">
-        <f t="shared" si="0"/>
+        <f>D34*E34</f>
         <v>1380000</v>
       </c>
       <c r="G34" s="55"/>
@@ -2023,7 +2023,7 @@
         <v>1400000</v>
       </c>
       <c r="F35" s="76">
-        <f t="shared" si="0"/>
+        <f>D35*E35</f>
         <v>7000000</v>
       </c>
       <c r="G35" s="55"/>
@@ -2045,7 +2045,7 @@
         <v>1410000</v>
       </c>
       <c r="F36" s="76">
-        <f t="shared" si="0"/>
+        <f>D36*E36</f>
         <v>1410000</v>
       </c>
       <c r="G36" s="55"/>
@@ -2067,7 +2067,7 @@
         <v>1430000</v>
       </c>
       <c r="F37" s="76">
-        <f t="shared" si="0"/>
+        <f>D37*E37</f>
         <v>2860000</v>
       </c>
       <c r="G37" s="55"/>
@@ -2089,7 +2089,7 @@
         <v>1439600</v>
       </c>
       <c r="F38" s="76">
-        <f t="shared" si="0"/>
+        <f>D38*E38</f>
         <v>1439600</v>
       </c>
       <c r="G38" s="55"/>
@@ -2111,7 +2111,7 @@
         <v>1450000</v>
       </c>
       <c r="F39" s="76">
-        <f t="shared" si="0"/>
+        <f>D39*E39</f>
         <v>1450000</v>
       </c>
       <c r="G39" s="55"/>
@@ -2133,7 +2133,7 @@
         <v>1500000</v>
       </c>
       <c r="F40" s="76">
-        <f t="shared" si="0"/>
+        <f>D40*E40</f>
         <v>4500000</v>
       </c>
       <c r="G40" s="55"/>
@@ -2155,7 +2155,7 @@
         <v>1510000</v>
       </c>
       <c r="F41" s="76">
-        <f t="shared" si="0"/>
+        <f>D41*E41</f>
         <v>1510000</v>
       </c>
       <c r="G41" s="55"/>
@@ -2177,7 +2177,7 @@
         <v>1550000</v>
       </c>
       <c r="F42" s="76">
-        <f t="shared" si="0"/>
+        <f>D42*E42</f>
         <v>1550000</v>
       </c>
       <c r="G42" s="55"/>
@@ -2199,7 +2199,7 @@
         <v>1560000</v>
       </c>
       <c r="F43" s="76">
-        <f t="shared" si="0"/>
+        <f>D43*E43</f>
         <v>1560000</v>
       </c>
       <c r="G43" s="55"/>
@@ -2221,7 +2221,7 @@
         <v>1600000</v>
       </c>
       <c r="F44" s="76">
-        <f t="shared" si="0"/>
+        <f>D44*E44</f>
         <v>3200000</v>
       </c>
       <c r="G44" s="55"/>
@@ -2243,7 +2243,7 @@
         <v>1700000</v>
       </c>
       <c r="F45" s="76">
-        <f t="shared" si="0"/>
+        <f>D45*E45</f>
         <v>1700000</v>
       </c>
       <c r="G45" s="55"/>
@@ -2265,7 +2265,7 @@
         <v>1775000</v>
       </c>
       <c r="F46" s="76">
-        <f t="shared" si="0"/>
+        <f>D46*E46</f>
         <v>1775000</v>
       </c>
       <c r="G46" s="55"/>
@@ -2287,7 +2287,7 @@
         <v>1793600</v>
       </c>
       <c r="F47" s="76">
-        <f t="shared" si="0"/>
+        <f>D47*E47</f>
         <v>1793600</v>
       </c>
       <c r="G47" s="55"/>
@@ -2309,7 +2309,7 @@
         <v>1800000</v>
       </c>
       <c r="F48" s="76">
-        <f t="shared" si="0"/>
+        <f>D48*E48</f>
         <v>5400000</v>
       </c>
       <c r="G48" s="55"/>
@@ -2331,7 +2331,7 @@
         <v>1830000</v>
       </c>
       <c r="F49" s="76">
-        <f t="shared" si="0"/>
+        <f>D49*E49</f>
         <v>1830000</v>
       </c>
       <c r="G49" s="55"/>
@@ -2353,7 +2353,7 @@
         <v>1850000</v>
       </c>
       <c r="F50" s="76">
-        <f t="shared" si="0"/>
+        <f>D50*E50</f>
         <v>1850000</v>
       </c>
       <c r="G50" s="55"/>
@@ -2375,7 +2375,7 @@
         <v>1900000</v>
       </c>
       <c r="F51" s="76">
-        <f t="shared" si="0"/>
+        <f>D51*E51</f>
         <v>1900000</v>
       </c>
       <c r="G51" s="55"/>
@@ -2397,7 +2397,7 @@
         <v>1913500</v>
       </c>
       <c r="F52" s="76">
-        <f t="shared" si="0"/>
+        <f>D52*E52</f>
         <v>1913500</v>
       </c>
       <c r="G52" s="55"/>
@@ -2419,7 +2419,7 @@
         <v>1935500</v>
       </c>
       <c r="F53" s="76">
-        <f t="shared" si="0"/>
+        <f>D53*E53</f>
         <v>1935500</v>
       </c>
       <c r="G53" s="55"/>
@@ -2441,7 +2441,7 @@
         <v>1950000</v>
       </c>
       <c r="F54" s="76">
-        <f t="shared" si="0"/>
+        <f>D54*E54</f>
         <v>3900000</v>
       </c>
       <c r="G54" s="55"/>
@@ -2463,7 +2463,7 @@
         <v>2000000</v>
       </c>
       <c r="F55" s="76">
-        <f t="shared" si="0"/>
+        <f>D55*E55</f>
         <v>8000000</v>
       </c>
       <c r="G55" s="55"/>
@@ -2485,7 +2485,7 @@
         <v>2050000</v>
       </c>
       <c r="F56" s="76">
-        <f t="shared" si="0"/>
+        <f>D56*E56</f>
         <v>4100000</v>
       </c>
       <c r="G56" s="55"/>
@@ -2507,7 +2507,7 @@
         <v>2080000</v>
       </c>
       <c r="F57" s="76">
-        <f t="shared" si="0"/>
+        <f>D57*E57</f>
         <v>4160000</v>
       </c>
       <c r="G57" s="55"/>
@@ -2529,7 +2529,7 @@
         <v>2100000</v>
       </c>
       <c r="F58" s="76">
-        <f t="shared" si="0"/>
+        <f>D58*E58</f>
         <v>6300000</v>
       </c>
       <c r="G58" s="55"/>
@@ -2551,7 +2551,7 @@
         <v>2114500</v>
       </c>
       <c r="F59" s="76">
-        <f t="shared" si="0"/>
+        <f>D59*E59</f>
         <v>2114500</v>
       </c>
       <c r="G59" s="55"/>
@@ -2573,7 +2573,7 @@
         <v>2134500</v>
       </c>
       <c r="F60" s="76">
-        <f t="shared" si="0"/>
+        <f>D60*E60</f>
         <v>2134500</v>
       </c>
       <c r="G60" s="55"/>
@@ -2595,7 +2595,7 @@
         <v>2150000</v>
       </c>
       <c r="F61" s="76">
-        <f t="shared" si="0"/>
+        <f>D61*E61</f>
         <v>12900000</v>
       </c>
       <c r="G61" s="55"/>
@@ -2617,7 +2617,7 @@
         <v>2200000</v>
       </c>
       <c r="F62" s="76">
-        <f t="shared" si="0"/>
+        <f>D62*E62</f>
         <v>13200000</v>
       </c>
       <c r="G62" s="55"/>
@@ -2639,7 +2639,7 @@
         <v>2244000</v>
       </c>
       <c r="F63" s="76">
-        <f t="shared" si="0"/>
+        <f>D63*E63</f>
         <v>2244000</v>
       </c>
       <c r="G63" s="55"/>
@@ -2661,7 +2661,7 @@
         <v>2247600</v>
       </c>
       <c r="F64" s="76">
-        <f t="shared" si="0"/>
+        <f>D64*E64</f>
         <v>2247600</v>
       </c>
       <c r="G64" s="55"/>
@@ -2683,7 +2683,7 @@
         <v>2262500</v>
       </c>
       <c r="F65" s="76">
-        <f t="shared" si="0"/>
+        <f>D65*E65</f>
         <v>2262500</v>
       </c>
       <c r="G65" s="55"/>
@@ -2705,7 +2705,7 @@
         <v>2300000</v>
       </c>
       <c r="F66" s="76">
-        <f t="shared" si="0"/>
+        <f>D66*E66</f>
         <v>9200000</v>
       </c>
       <c r="G66" s="55"/>
@@ -2727,7 +2727,7 @@
         <v>2350000</v>
       </c>
       <c r="F67" s="76">
-        <f t="shared" si="0"/>
+        <f>D67*E67</f>
         <v>4700000</v>
       </c>
       <c r="G67" s="55"/>
@@ -2749,7 +2749,7 @@
         <v>2400000</v>
       </c>
       <c r="F68" s="76">
-        <f t="shared" si="0"/>
+        <f>D68*E68</f>
         <v>2400000</v>
       </c>
       <c r="G68" s="55"/>
@@ -2771,7 +2771,7 @@
         <v>2425000</v>
       </c>
       <c r="F69" s="76">
-        <f t="shared" si="0"/>
+        <f>D69*E69</f>
         <v>2425000</v>
       </c>
       <c r="G69" s="55"/>
@@ -2793,7 +2793,7 @@
         <v>2450000</v>
       </c>
       <c r="F70" s="76">
-        <f t="shared" si="0"/>
+        <f>D70*E70</f>
         <v>2450000</v>
       </c>
       <c r="G70" s="55"/>
@@ -2815,7 +2815,7 @@
         <v>2460500</v>
       </c>
       <c r="F71" s="76">
-        <f t="shared" si="0"/>
+        <f>D71*E71</f>
         <v>2460500</v>
       </c>
       <c r="G71" s="55"/>
@@ -2837,7 +2837,7 @@
         <v>2476500</v>
       </c>
       <c r="F72" s="76">
-        <f t="shared" si="0"/>
+        <f>D72*E72</f>
         <v>2476500</v>
       </c>
       <c r="G72" s="55"/>
@@ -2859,7 +2859,7 @@
         <v>2786000</v>
       </c>
       <c r="F73" s="76">
-        <f t="shared" si="0"/>
+        <f>D73*E73</f>
         <v>2786000</v>
       </c>
       <c r="G73" s="55"/>
@@ -2881,7 +2881,7 @@
         <v>2975000</v>
       </c>
       <c r="F74" s="76">
-        <f t="shared" si="0"/>
+        <f>D74*E74</f>
         <v>2975000</v>
       </c>
       <c r="G74" s="55"/>
@@ -2903,7 +2903,7 @@
         <v>3354000</v>
       </c>
       <c r="F75" s="76">
-        <f t="shared" si="0"/>
+        <f>D75*E75</f>
         <v>3354000</v>
       </c>
       <c r="G75" s="55"/>
@@ -2962,7 +2962,11 @@
       <c r="B86" s="59"/>
     </row>
   </sheetData>
-  <autoFilter ref="A12:IT75"/>
+  <autoFilter ref="A12:IT75">
+    <sortState ref="A13:IT75">
+      <sortCondition ref="E12:E75"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="B13:F115">
     <sortCondition ref="E13:E115"/>
   </sortState>
@@ -2982,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEZ224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
